--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -518,67 +518,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>32.22</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.85</t>
+          <t>15.82</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>35.47</t>
+          <t>35.60</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>35.47</t>
+          <t>35.60</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -766,38 +766,38 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -814,72 +814,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-55.97%</t>
+          <t>-55.04%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-5.74%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.69%</t>
+          <t>-9.52%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.42%</t>
+          <t>-1.73%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-24.80%</t>
+          <t>-25.00%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>7.49%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.36%</t>
+          <t>-5.21%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-54.10%</t>
+          <t>-54.21%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-6.38%</t>
+          <t>-7.81%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.22%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>101.45%</t>
+          <t>106.67%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-32.53%</t>
+          <t>-32.69%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2.89%</t>
+          <t>-3.91%</t>
         </is>
       </c>
     </row>
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>305172873.57</t>
+          <t>294494320.86</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>256624.05</t>
+          <t>247769.32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>246572.33</t>
+          <t>236209.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31570489.90</t>
+          <t>31366168.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>264673787.38</t>
+          <t>257458828.64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>738170776.90</t>
+          <t>713269722.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>374541043.33</t>
+          <t>368433085.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>226693015.19</t>
+          <t>218300238.59</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10951758.10</t>
+          <t>10507754.95</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>45635699.90</t>
+          <t>44298507.50</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>99282052.38</t>
+          <t>96164738.00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>68367924.95</t>
+          <t>66327181.36</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>379293114.62</t>
+          <t>364707193.68</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>182945315.52</t>
+          <t>176858726.64</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.523</t>
+          <t>2.577</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1133,27 +1133,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.163</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.255</t>
+          <t>3.166</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.849</t>
+          <t>2.735</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.975</t>
+          <t>3.922</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1163,27 +1163,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.190</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.261</t>
+          <t>0.254</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.567</t>
+          <t>2.564</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.578</t>
+          <t>1.625</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>402</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>573</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>263</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1240,27 +1240,27 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>276</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>369</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>565</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>336</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1289,38 +1289,38 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.98%</t>
+          <t>12.05%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.92%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13.26%</t>
+          <t>13.23%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.80%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.29%</t>
+          <t>17.33%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.39%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1347,57 +1347,57 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-9.68</t>
+          <t>-9.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-15.52</t>
+          <t>-15.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23.22</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-4.06</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1607,12 +1607,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>31.52</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1629,67 +1629,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-18.16</t>
+          <t>-18.20</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1734,23 +1734,23 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>32.18</t>
+          <t>32.30</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1787,47 +1787,47 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.82</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>18.33</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>48.45</t>
+          <t>48.53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2179,32 +2179,32 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22.32</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-497.75</t>
+          <t>-496.81</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.48</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-5.65</t>
+          <t>-5.66</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.24</t>
+          <t>-10.28</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>67010874771</t>
+          <t>66745410072</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>138266591771</t>
+          <t>138001127072</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>14.54%</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>48.49%</t>
+          <t>51.03%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -528,62 +528,62 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>32.22</t>
+          <t>31.82</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>35.60</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>52.80</t>
+          <t>53.01</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>35.60</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -814,57 +814,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.91%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-55.04%</t>
+          <t>-54.93%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.52%</t>
+          <t>-10.74%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.73%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-25.00%</t>
+          <t>-25.38%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.49%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.21%</t>
+          <t>-6.38%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-54.21%</t>
+          <t>-54.37%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-7.81%</t>
+          <t>-7.87%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.32%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-32.69%</t>
+          <t>-32.82%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -518,72 +518,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.63</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>15.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31.82</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>53.01</t>
+          <t>52.49</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>35.53</t>
+          <t>35.60</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -749,60 +749,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.84</t>
         </is>
       </c>
     </row>
@@ -814,72 +814,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-54.93%</t>
+          <t>-55.58%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.74%</t>
+          <t>-5.85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.80%</t>
+          <t>-3.29%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-25.38%</t>
+          <t>-24.77%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-6.38%</t>
+          <t>-6.09%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-54.37%</t>
+          <t>-54.21%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-7.87%</t>
+          <t>-8.51%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>106.67%</t>
+          <t>105.19%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-32.82%</t>
+          <t>-31.80%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-3.91%</t>
+          <t>-4.48%</t>
         </is>
       </c>
     </row>
@@ -1272,60 +1272,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12.05%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13.23%</t>
+          <t>13.41%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>12.83%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.33%</t>
+          <t>16.79%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.82%</t>
+          <t>3.84%</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1352,57 +1352,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-15.53</t>
+          <t>-15.92</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.48</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-4.06</t>
+          <t>-4.03</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.54</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1578,17 +1578,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1596,28 +1596,28 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>31.64</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.59</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1639,37 +1639,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-18.20</t>
+          <t>-18.19</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1679,22 +1679,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>10.08</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>32.30</t>
+          <t>32.67</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1782,32 +1782,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-3.82</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1817,22 +1817,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.86</t>
         </is>
       </c>
     </row>
@@ -1936,52 +1936,52 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>0.22</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2117,22 +2117,22 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.29</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>48.53</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2179,37 +2179,37 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22.37</t>
+          <t>22.07</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-496.81</t>
+          <t>-512.79</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.43</t>
         </is>
       </c>
     </row>
@@ -2236,52 +2236,52 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-2.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-5.59</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>-0.27</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-2.16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-5.66</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-0.61</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.28</t>
+          <t>-10.40</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3836,72 +3836,72 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>190242979785</t>
+          <t>190715828948</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>257798813</t>
+          <t>255935208</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>600743570</t>
+          <t>605878131</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10881915811</t>
+          <t>11112998965</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>65989245000</t>
+          <t>64672620000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>113470513992</t>
+          <t>114043597396</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>155314160665</t>
+          <t>155579196909</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>64440000000</t>
+          <t>63600000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1850475866</t>
+          <t>1843937082</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6051820594</t>
+          <t>6050440695</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34257196637</t>
+          <t>34914925043</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5235731326</t>
+          <t>5216965264</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>149424520729</t>
+          <t>150893582028</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>66745410072</t>
+          <t>66429380668</t>
         </is>
       </c>
     </row>
@@ -3913,72 +3913,72 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>175876165785</t>
+          <t>176349014948</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1883979813</t>
+          <t>1882116208</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1263360570</t>
+          <t>1268495131</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30619513811</t>
+          <t>30850596965</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>65905901000</t>
+          <t>64589276000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>113470513992</t>
+          <t>114043597396</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>155314160665</t>
+          <t>155579196909</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>64440000000</t>
+          <t>63600000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>8809475866</t>
+          <t>8802937082</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5757759594</t>
+          <t>5756379695</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>46542276637</t>
+          <t>47200005043</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10675077326</t>
+          <t>10656311264</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>146340071729</t>
+          <t>147809133028</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>138001127072</t>
+          <t>137685097668</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,6 @@
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>AMAR3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AURE3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,21 +456,6 @@
           <t>12.22</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -498,21 +468,6 @@
           <t>10.62</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,21 +480,6 @@
           <t>14.44</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -549,14 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.54</t>
+          <t>8.60</t>
         </is>
       </c>
     </row>
@@ -571,21 +504,6 @@
           <t>0.08%</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-53.26%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-8.43%</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -598,21 +516,6 @@
           <t>ON</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -625,21 +528,6 @@
           <t>80 %</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -649,22 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>281802404.57</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>237389.87</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>227303.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>34044023.39</t>
+          <t>275018042.55</t>
         </is>
       </c>
     </row>
@@ -676,22 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.580</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.165</t>
+          <t>2.547</t>
         </is>
       </c>
     </row>
@@ -703,22 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>52</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -730,14 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.61%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.54%</t>
+          <t>8.60%</t>
         </is>
       </c>
     </row>
@@ -749,22 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13.05</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-10.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-15.88</t>
+          <t>13.06</t>
         </is>
       </c>
     </row>
@@ -779,21 +600,6 @@
           <t>5.27</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -806,21 +612,6 @@
           <t>2.08</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-4.12</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -830,22 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-2.35</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.87</t>
+          <t>5.37</t>
         </is>
       </c>
     </row>
@@ -857,22 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-2.10</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.60</t>
+          <t>7.76</t>
         </is>
       </c>
     </row>
@@ -884,22 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.16</t>
+          <t>5.80</t>
         </is>
       </c>
     </row>
@@ -911,22 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.33</t>
+          <t>8.38</t>
         </is>
       </c>
     </row>
@@ -941,21 +672,6 @@
           <t>5.87</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -968,21 +684,6 @@
           <t>1.35</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -995,21 +696,6 @@
           <t>0.94</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-18.65</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1022,21 +708,6 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1046,22 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.10</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.78</t>
+          <t>49.14</t>
         </is>
       </c>
     </row>
@@ -1076,21 +732,6 @@
           <t>-1.90</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1103,17 +744,6 @@
           <t>-0.16</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1126,21 +756,6 @@
           <t>-0.43</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-2.03</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1153,21 +768,6 @@
           <t>-0.63</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-1.81</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1180,21 +780,6 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1207,21 +792,6 @@
           <t>0.34</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1234,21 +804,6 @@
           <t>1.11</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1261,21 +816,6 @@
           <t>51.50%</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>51.34%</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>19.44%</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1288,21 +828,6 @@
           <t>36.22%</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-77.62%</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>19.60%</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>31.89%</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1315,21 +840,6 @@
           <t>25.06%</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>-87.08%</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>12.16%</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13.73%</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1342,21 +852,6 @@
           <t>16.08%</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-112.32%</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-4.04%</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-6.34%</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1369,21 +864,6 @@
           <t>15.95%</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-1823.36%</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-21.07%</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-5.52%</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1396,21 +876,6 @@
           <t>10.38%</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-56.67%</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-3.02%</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-1.42%</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1423,21 +888,6 @@
           <t>18.73%</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>-58.22%</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>18.95%</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1450,21 +900,6 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1477,17 +912,6 @@
           <t>11.20%</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>12.70%</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-13.55%</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1500,9 +924,6 @@
           <t>4.60%</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1515,21 +936,6 @@
           <t>92471636000</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>-63526000</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>289343000</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>12683764000</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1542,21 +948,6 @@
           <t>142157543000</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2044103000</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2018171000</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>49202800000</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1569,21 +960,6 @@
           <t>40791956000</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>750573000</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>526997000</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>8733253000</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1596,21 +972,6 @@
           <t>3157764000</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1693749000</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>672865000</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>24670766000</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1623,21 +984,6 @@
           <t>17524578000</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>67568000</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>10248000</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4933168000</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1650,21 +996,6 @@
           <t>-14366814000</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1626181000</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>662617000</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>19737598000</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1674,22 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>192449609211</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>261526025</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>611012691</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>11123502745</t>
+          <t>192607225598</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>178082795211</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1887707025</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1273629691</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>30861100745</t>
+          <t>178240411598</t>
         </is>
       </c>
     </row>
@@ -1732,21 +1033,6 @@
           <t>15761638756</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>62120196</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>513456043</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1050377974</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1755,21 +1041,6 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Novo Mercado</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Novo Mercado</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Novo Mercado</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1780,21 +1051,6 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>27.12%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>59.08%</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>30.31%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.22</t>
+          <t>12.17</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>8.68</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>-0.25%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>275018042.55</t>
+          <t>278857104.90</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.547</t>
+          <t>2.527</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.60%</t>
+          <t>8.68%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>12.95</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.31</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.69</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.74</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>8.31</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.34</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.14</t>
+          <t>48.74</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-1.88</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36.22%</t>
+          <t>36.31%</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>192607225598</t>
+          <t>191031061723</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>178240411598</t>
+          <t>176664247723</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>mlas3</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>1.04</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>0.92</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,7 @@
           <t>Dividend Yield</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -501,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-42.54%</t>
         </is>
       </c>
     </row>
@@ -525,7 +521,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>80 %</t>
+          <t>100 %</t>
         </is>
       </c>
     </row>
@@ -537,7 +533,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>278857104.90</t>
+          <t>1452372.05</t>
         </is>
       </c>
     </row>
@@ -549,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.527</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -561,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -571,11 +567,7 @@
           <t>D.Y</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8.68%</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -585,7 +577,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>-7.38</t>
         </is>
       </c>
     </row>
@@ -597,7 +589,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>0.09</t>
         </is>
       </c>
     </row>
@@ -609,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.29</t>
         </is>
       </c>
     </row>
@@ -621,7 +613,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>8.74</t>
         </is>
       </c>
     </row>
@@ -633,7 +625,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>59.39</t>
         </is>
       </c>
     </row>
@@ -645,7 +637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -657,7 +649,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>50.52</t>
         </is>
       </c>
     </row>
@@ -669,7 +661,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>3.62</t>
         </is>
       </c>
     </row>
@@ -681,7 +673,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
@@ -693,7 +685,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-0.14</t>
         </is>
       </c>
     </row>
@@ -705,7 +697,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.25</t>
         </is>
       </c>
     </row>
@@ -717,7 +709,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>48.74</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>
@@ -729,7 +721,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-0.49</t>
         </is>
       </c>
     </row>
@@ -741,7 +733,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -753,7 +745,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -765,7 +757,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>9.35</t>
         </is>
       </c>
     </row>
@@ -777,7 +769,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.56</t>
         </is>
       </c>
     </row>
@@ -789,7 +781,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -801,7 +793,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.04</t>
         </is>
       </c>
     </row>
@@ -813,7 +805,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>51.50%</t>
+          <t>24.21%</t>
         </is>
       </c>
     </row>
@@ -825,7 +817,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36.31%</t>
+          <t>3.31%</t>
         </is>
       </c>
     </row>
@@ -837,7 +829,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25.06%</t>
+          <t>0.49%</t>
         </is>
       </c>
     </row>
@@ -849,7 +841,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.08%</t>
+          <t>-3.33%</t>
         </is>
       </c>
     </row>
@@ -861,7 +853,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15.95%</t>
+          <t>-3.89%</t>
         </is>
       </c>
     </row>
@@ -873,7 +865,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10.38%</t>
+          <t>-2.16%</t>
         </is>
       </c>
     </row>
@@ -885,7 +877,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18.73%</t>
+          <t>-1.93%</t>
         </is>
       </c>
     </row>
@@ -909,7 +901,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>12.16%</t>
         </is>
       </c>
     </row>
@@ -919,11 +911,7 @@
           <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>4.60%</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -933,7 +921,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>92471636000</t>
+          <t>2971220000</t>
         </is>
       </c>
     </row>
@@ -945,7 +933,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>142157543000</t>
+          <t>5346369000</t>
         </is>
       </c>
     </row>
@@ -957,7 +945,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>40791956000</t>
+          <t>3620676000</t>
         </is>
       </c>
     </row>
@@ -969,7 +957,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3157764000</t>
+          <t>656760000</t>
         </is>
       </c>
     </row>
@@ -981,7 +969,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17524578000</t>
+          <t>498873000</t>
         </is>
       </c>
     </row>
@@ -993,7 +981,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-14366814000</t>
+          <t>157887000</t>
         </is>
       </c>
     </row>
@@ -1005,7 +993,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>191031061723</t>
+          <t>845155402</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>176664247723</t>
+          <t>1003042402</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1018,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15761638756</t>
+          <t>820539225</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1028,11 @@
           <t>Segmento de listagem</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1050,7 +1042,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27.12%</t>
+          <t>46.79%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.08</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-42.54%</t>
+          <t>-36.31%</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1452372.05</t>
+          <t>1470480.48</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-7.38</t>
+          <t>-7.67</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>9.10</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59.39</t>
+          <t>61.82</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.72</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>50.52</t>
+          <t>52.47</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.48</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.51</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>845155402</t>
+          <t>886182363</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1003042402</t>
+          <t>1044069363</t>
         </is>
       </c>
     </row>
